--- a/master_poll_EDITED.xlsx
+++ b/master_poll_EDITED.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="materialType" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,13 @@
     <sheet name="productPartners" sheetId="4" r:id="rId5"/>
     <sheet name="partners" sheetId="5" r:id="rId6"/>
     <sheet name="adress" sheetId="7" r:id="rId7"/>
-    <sheet name="area" sheetId="8" r:id="rId8"/>
-    <sheet name="partnerType" sheetId="6" r:id="rId9"/>
-    <sheet name="products" sheetId="3" r:id="rId10"/>
-    <sheet name="mainProducts" sheetId="13" r:id="rId11"/>
-    <sheet name="city" sheetId="9" r:id="rId12"/>
-    <sheet name="street" sheetId="10" r:id="rId13"/>
+    <sheet name="indexes" sheetId="14" r:id="rId8"/>
+    <sheet name="area" sheetId="8" r:id="rId9"/>
+    <sheet name="partnerType" sheetId="6" r:id="rId10"/>
+    <sheet name="products" sheetId="3" r:id="rId11"/>
+    <sheet name="mainProducts" sheetId="13" r:id="rId12"/>
+    <sheet name="city" sheetId="9" r:id="rId13"/>
+    <sheet name="street" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
   <si>
     <t>Тип материала 1</t>
   </si>
@@ -225,18 +226,6 @@
     <t xml:space="preserve"> ул. Рабочая</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
@@ -295,6 +284,12 @@
   </si>
   <si>
     <t>typeFactor</t>
+  </si>
+  <si>
+    <t>indexName</t>
+  </si>
+  <si>
+    <t>idIndex</t>
   </si>
 </sst>
 </file>
@@ -302,9 +297,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -377,14 +372,14 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,7 +387,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -677,7 +672,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,10 +755,71 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B5">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,20 +883,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="60" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="71.140625" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -850,22 +906,22 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -877,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <f>LOOKUP(E2:E6,products!$B$2:$B$6,products!$A$2:$A$6)</f>
@@ -902,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <f>LOOKUP(E3:E7,products!$B$2:$B$6,products!$A$2:$A$6)</f>
@@ -927,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <f>LOOKUP(E4:E8,products!$B$2:$B$6,products!$A$2:$A$6)</f>
@@ -952,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <f>LOOKUP(E5:E9,products!$B$2:$B$6,products!$A$2:$A$6)</f>
@@ -977,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <f>LOOKUP(E6:E10,products!$B$2:$B$6,products!$A$2:$A$6)</f>
@@ -998,12 +1054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1067,12 +1123,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,13 +1197,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1156,13 +1212,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1174,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" s="8">
         <v>2.35</v>
@@ -1189,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" s="8">
         <v>5.15</v>
@@ -1204,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" s="8">
         <v>4.34</v>
@@ -1219,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8">
         <v>1.5</v>
@@ -1236,7 +1292,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1257,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1265,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1273,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1281,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1297,14 +1353,14 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1333,6 +1389,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <f>LOOKUP(C2:C17,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>4</v>
@@ -1355,6 +1414,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <f>LOOKUP(C3:C18,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>2</v>
@@ -1377,6 +1439,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <f>LOOKUP(C4:C19,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>3</v>
@@ -1399,6 +1464,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <f>LOOKUP(C5:C20,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>1</v>
@@ -1421,6 +1489,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <f>LOOKUP(C6:C21,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>5</v>
@@ -1443,6 +1514,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7">
         <f>LOOKUP(C7:C22,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>2</v>
@@ -1465,6 +1539,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8">
         <f>LOOKUP(C8:C23,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>4</v>
@@ -1487,6 +1564,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9">
         <f>LOOKUP(C9:C24,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>4</v>
@@ -1509,6 +1589,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10">
         <f>LOOKUP(C10:C25,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>1</v>
@@ -1531,6 +1614,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11">
         <f>LOOKUP(C11:C26,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>3</v>
@@ -1553,6 +1639,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12">
         <f>LOOKUP(C12:C27,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>2</v>
@@ -1575,6 +1664,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13">
         <f>LOOKUP(C13:C28,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>5</v>
@@ -1597,6 +1689,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14">
         <f>LOOKUP(C14:C29,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>2</v>
@@ -1619,6 +1714,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15">
         <f>LOOKUP(C15:C30,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>3</v>
@@ -1641,6 +1739,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16">
         <f>LOOKUP(C16:C31,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>4</v>
@@ -1662,7 +1763,10 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17">
         <f>LOOKUP(C17:C32,products!$B$2:$B$6,products!$A$2:$A$6)</f>
         <v>1</v>
@@ -1694,7 +1798,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,21 +1866,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1807,7 +1911,7 @@
         <v>45</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>46</v>
@@ -1820,6 +1924,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <f>LOOKUP(C2:C6,partnerType!$B$2:$B$5,partnerType!$A$2:$A$5)</f>
         <v>1</v>
@@ -1844,7 +1951,7 @@
         <v>4931234567</v>
       </c>
       <c r="I2">
-        <f>LOOKUP(J2:J6,adress!$B$2:$B$6,adress!$A$2:$A$6)</f>
+        <f>LOOKUP(J2:J6,indexes!$B$2:$B$6,indexes!$A$2:$A$6)</f>
         <v>5</v>
       </c>
       <c r="J2">
@@ -1858,6 +1965,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <f>LOOKUP(C3:C7,partnerType!$B$2:$B$5,partnerType!$A$2:$A$5)</f>
         <v>3</v>
@@ -1882,7 +1992,7 @@
         <v>9871235678</v>
       </c>
       <c r="I3">
-        <f>LOOKUP(J3:J7,adress!$B$2:$B$6,adress!$A$2:$A$6)</f>
+        <f>LOOKUP(J3:J7,indexes!$B$2:$B$6,indexes!$A$2:$A$6)</f>
         <v>2</v>
       </c>
       <c r="J3">
@@ -1896,6 +2006,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <f>LOOKUP(C4:C8,partnerType!$B$2:$B$5,partnerType!$A$2:$A$5)</f>
         <v>4</v>
@@ -1920,7 +2033,7 @@
         <v>8122233200</v>
       </c>
       <c r="I4">
-        <f>LOOKUP(J4:J8,adress!$B$2:$B$6,adress!$A$2:$A$6)</f>
+        <f>LOOKUP(J4:J8,indexes!$B$2:$B$6,indexes!$A$2:$A$6)</f>
         <v>3</v>
       </c>
       <c r="J4">
@@ -1934,6 +2047,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <f>LOOKUP(C5:C9,partnerType!$B$2:$B$5,partnerType!$A$2:$A$5)</f>
         <v>2</v>
@@ -1958,7 +2074,7 @@
         <v>4442223311</v>
       </c>
       <c r="I5">
-        <f>LOOKUP(J5:J9,adress!$B$2:$B$6,adress!$A$2:$A$6)</f>
+        <f>LOOKUP(J5:J9,indexes!$B$2:$B$6,indexes!$A$2:$A$6)</f>
         <v>1</v>
       </c>
       <c r="J5">
@@ -1972,6 +2088,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <f>LOOKUP(C6:C10,partnerType!$B$2:$B$5,partnerType!$A$2:$A$5)</f>
         <v>1</v>
@@ -1996,7 +2115,7 @@
         <v>9128883333</v>
       </c>
       <c r="I6">
-        <f>LOOKUP(J6:J10,adress!$B$2:$B$6,adress!$A$2:$A$6)</f>
+        <f>LOOKUP(J6:J10,indexes!$B$2:$B$6,indexes!$A$2:$A$6)</f>
         <v>4</v>
       </c>
       <c r="J6">
@@ -2023,218 +2142,225 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="1" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <f>LOOKUP(C2:C6,indexes!$B$2:$B$6,indexes!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>652050</v>
+      </c>
+      <c r="D2">
+        <f>LOOKUP(E2:E6,area!$B$2:$B$6,area!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <f>LOOKUP(G2:G6,city!$B$2:$B$6,city!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <f>LOOKUP(I2:I6,street!$B$2:$B$6,street!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>LOOKUP(C3:C7,indexes!$B$2:$B$6,indexes!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>164500</v>
+      </c>
+      <c r="D3">
+        <f>LOOKUP(E3:E7,area!$B$2:$B$6,area!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <f>LOOKUP(G3:G7,city!$B$2:$B$6,city!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3">
+        <f>LOOKUP(I3:I7,street!$B$2:$B$6,street!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>LOOKUP(C4:C8,indexes!$B$2:$B$6,indexes!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>188910</v>
+      </c>
+      <c r="D4">
+        <f>LOOKUP(E4:E8,area!$B$2:$B$6,area!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <f>LOOKUP(G4:G8,city!$B$2:$B$6,city!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <f>LOOKUP(I4:I8,street!$B$2:$B$6,street!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>LOOKUP(C5:C9,indexes!$B$2:$B$6,indexes!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>143960</v>
       </c>
-      <c r="C2">
-        <f>LOOKUP(D2:D6,area!$B$2:$B$6,area!$A$2:$A$6)</f>
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D5">
+        <f>LOOKUP(E5:E9,area!$B$2:$B$6,area!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="E2">
-        <f>LOOKUP(F2:F6,city!$B$2:$B$6,city!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F5">
+        <f>LOOKUP(G5:G9,city!$B$2:$B$6,city!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
         <v>59</v>
       </c>
-      <c r="G2">
-        <f>LOOKUP(H2:H6,street!$B$2:$B$6,street!$A$2:$A$6)</f>
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H5">
+        <f>LOOKUP(I5:I9,street!$B$2:$B$6,street!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
         <v>60</v>
       </c>
-      <c r="I2">
+      <c r="J5">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>164500</v>
-      </c>
-      <c r="C3">
-        <f>LOOKUP(D3:D7,area!$B$2:$B$6,area!$A$2:$A$6)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3">
-        <f>LOOKUP(F3:F7,city!$B$2:$B$6,city!$A$2:$A$6)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3">
-        <f>LOOKUP(H3:H7,street!$B$2:$B$6,street!$A$2:$A$6)</f>
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>188910</v>
-      </c>
-      <c r="C4">
-        <f>LOOKUP(D4:D8,area!$B$2:$B$6,area!$A$2:$A$6)</f>
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <f>LOOKUP(F4:F8,city!$B$2:$B$6,city!$A$2:$A$6)</f>
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <f>LOOKUP(H4:H8,street!$B$2:$B$6,street!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>LOOKUP(C6:C10,indexes!$B$2:$B$6,indexes!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>309500</v>
       </c>
-      <c r="C5">
-        <f>LOOKUP(D5:D9,area!$B$2:$B$6,area!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6">
+        <f>LOOKUP(E6:E10,area!$B$2:$B$6,area!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="E5">
-        <f>LOOKUP(F5:F9,city!$B$2:$B$6,city!$A$2:$A$6)</f>
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F6">
+        <f>LOOKUP(G6:G10,city!$B$2:$B$6,city!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
         <v>62</v>
       </c>
-      <c r="G5">
-        <f>LOOKUP(H5:H9,street!$B$2:$B$6,street!$A$2:$A$6)</f>
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H6">
+        <f>LOOKUP(I6:I10,street!$B$2:$B$6,street!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
         <v>63</v>
       </c>
-      <c r="I5">
+      <c r="J6">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>652050</v>
-      </c>
-      <c r="C6">
-        <f>LOOKUP(D6:D10,area!$B$2:$B$6,area!$A$2:$A$6)</f>
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6">
-        <f>LOOKUP(F6:F10,city!$B$2:$B$6,city!$A$2:$A$6)</f>
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <f>LOOKUP(H6:H10,street!$B$2:$B$6,street!$A$2:$A$6)</f>
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B2:I6">
-    <sortCondition ref="B2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2244,7 +2370,77 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>143960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>164500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>188910</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>309500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>652050</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B6">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2306,65 +2502,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:B5">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>